--- a/Documents/LEOAMSAT_list.xlsx
+++ b/Documents/LEOAMSAT_list.xlsx
@@ -24,124 +24,412 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="133">
   <si>
     <t>Satellite</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>NORAD</t>
+  </si>
+  <si>
     <t>Uplink</t>
   </si>
   <si>
     <t>Downlink</t>
   </si>
   <si>
-    <t>1200bps FSK 437MHz</t>
-  </si>
-  <si>
-    <t>AFSK 145MHz</t>
-  </si>
-  <si>
-    <t>Swiss Cube (2009)</t>
-  </si>
-  <si>
-    <t>DO-64</t>
-  </si>
-  <si>
-    <t>145.870 BPSK ax.25</t>
-  </si>
-  <si>
-    <t>435.570MHz</t>
-  </si>
-  <si>
-    <t>VO-52</t>
-  </si>
-  <si>
-    <t>CO-65</t>
-  </si>
-  <si>
-    <t>1.2GHz FSK 9600 ax.25</t>
-  </si>
-  <si>
-    <t>437.475MHz FSK(9.6kpbs) AFSK(1.2kpbs) ax.25</t>
-  </si>
-  <si>
-    <t>145.92MHz/1268.7MHz Voice</t>
-  </si>
-  <si>
-    <t>435.3MHz Voice/2401.2MHz Voic</t>
-  </si>
-  <si>
-    <t>145.86MHz/1268.7MHz FSK 9600bps</t>
-  </si>
-  <si>
-    <t>435.15MHz FSK 9600/2402.2MHz 34</t>
-  </si>
-  <si>
-    <t>A0-51 (Dead 2011)</t>
-  </si>
-  <si>
-    <t>435.25MHz CW/SSB</t>
-  </si>
-  <si>
-    <t>145.9MHz CW/SSB</t>
-  </si>
-  <si>
-    <t>CO-57</t>
-  </si>
-  <si>
-    <t>437.490MHz AFSK 1200pbs ax.25/436.8475MHz CW</t>
-  </si>
-  <si>
-    <t>NO-44</t>
-  </si>
-  <si>
-    <t>145.825MHz FSK 1200pbs/9600bps ax.25</t>
-  </si>
-  <si>
-    <t>145.825MHz FSK 1200bps/9600bps ax.25</t>
-  </si>
-  <si>
-    <t>Horyu-2</t>
-  </si>
-  <si>
-    <t>145.825MHz FM 145.925 CW/SSB 145.825MHz 1200bps AFSK</t>
-  </si>
-  <si>
-    <t>435.79MHz CW/beacon 435.675MHz FM/Voice</t>
-  </si>
-  <si>
-    <t>HO-68 (Possibly Broke)</t>
-  </si>
-  <si>
-    <t>GO-32</t>
-  </si>
-  <si>
-    <t>145.850MHz/145.890/145.930 FSK 9600 ax.25</t>
-  </si>
-  <si>
-    <t>435.325MHz/435.225MHz 9600 FSK ax.25</t>
-  </si>
-  <si>
-    <t>FO-29</t>
-  </si>
-  <si>
-    <t>AO-16 (Broke)</t>
+    <t>Beacon</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Callsign</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>AO-7 (Phase-2B</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>145.850-950</t>
+  </si>
+  <si>
+    <t>29.400-500</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>latest report</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>AO-7 (Phase-2B)</t>
+  </si>
+  <si>
+    <t>432.125-175</t>
+  </si>
+  <si>
+    <t>145.975-925</t>
+  </si>
+  <si>
+    <t>B,C</t>
+  </si>
+  <si>
+    <t>UO-11 (UoSAT-2)</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>FM, 1k2 FSK</t>
+  </si>
+  <si>
+    <t>UOSAT-2</t>
+  </si>
+  <si>
+    <t>RS-22 (Mozhayets)</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>AO-27 (EYESAT-A)</t>
+  </si>
+  <si>
+    <t>INACTIVE</t>
+  </si>
+  <si>
+    <t>1k2 AFSK,FM</t>
+  </si>
+  <si>
+    <t>FO-29 (JAS-2)</t>
+  </si>
+  <si>
+    <t>145.900-999</t>
+  </si>
+  <si>
+    <t>435.900-800</t>
+  </si>
+  <si>
+    <t>SSB,CW</t>
+  </si>
+  <si>
+    <t>8J1JCS</t>
   </si>
   <si>
     <t>ISS</t>
   </si>
   <si>
-    <t>144.49MHz voice/145.2MHz voice 145.825Mhz packets</t>
-  </si>
-  <si>
-    <t>145.8 MHz voice 145.825Mhz packets</t>
+    <t>APRS</t>
+  </si>
+  <si>
+    <t>RS0ISS</t>
+  </si>
+  <si>
+    <t>145.20/144.49</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>NA1SS</t>
+  </si>
+  <si>
+    <t>RS0ISS-4,-11</t>
+  </si>
+  <si>
+    <t>NO-44 (PCsat1)</t>
+  </si>
+  <si>
+    <t>1k2 AFSK</t>
+  </si>
+  <si>
+    <t>PCSAT-1</t>
+  </si>
+  <si>
+    <t>SO-50 (SaudiSat-1c)</t>
+  </si>
+  <si>
+    <t>FM_tone 67.0Hz</t>
+  </si>
+  <si>
+    <t>VO-52 (Hamsat)</t>
+  </si>
+  <si>
+    <t>435.225-275</t>
+  </si>
+  <si>
+    <t>145.925-875</t>
+  </si>
+  <si>
+    <t>CO-55 (CUTE-I)</t>
+  </si>
+  <si>
+    <t>JQ1YCY</t>
+  </si>
+  <si>
+    <t>CO-57 (XI-IV)</t>
+  </si>
+  <si>
+    <t>1k2 AFSK,CW</t>
+  </si>
+  <si>
+    <t>JQ1YCW</t>
+  </si>
+  <si>
+    <t>CO-58 (XI-V)</t>
+  </si>
+  <si>
+    <t>JQ1YGW</t>
+  </si>
+  <si>
+    <t>CUTE1.7+APDII</t>
+  </si>
+  <si>
+    <t>9600bps GMSK</t>
+  </si>
+  <si>
+    <t>JQ1YTC</t>
+  </si>
+  <si>
+    <t>AAUSAT-II</t>
+  </si>
+  <si>
+    <t>1k2 FFSK/MSK</t>
+  </si>
+  <si>
+    <t>OZ2CUB</t>
+  </si>
+  <si>
+    <t>DO-64 (DELFI-C3)</t>
+  </si>
+  <si>
+    <t>1k2 BPSK</t>
+  </si>
+  <si>
+    <t>DLFIC3</t>
+  </si>
+  <si>
+    <t>CO-66 (SEEDS-II)</t>
+  </si>
+  <si>
+    <t>1k2 FM,CW,Talker</t>
+  </si>
+  <si>
+    <t>JQ1YGU</t>
+  </si>
+  <si>
+    <t>RS-30 (Yubileiniy)</t>
+  </si>
+  <si>
+    <t>435.315/215</t>
+  </si>
+  <si>
+    <t>RS30</t>
+  </si>
+  <si>
+    <t>PRISM (HITOMI)</t>
+  </si>
+  <si>
+    <t>AFSK,GMSK,CW</t>
+  </si>
+  <si>
+    <t>JQ1YCX</t>
+  </si>
+  <si>
+    <t>SwissCube-1</t>
+  </si>
+  <si>
+    <t>1k2 BFSK,CW</t>
+  </si>
+  <si>
+    <t>HB9EG/1</t>
+  </si>
+  <si>
+    <t>BeeSat</t>
+  </si>
+  <si>
+    <t>9k6/4k8 GMSK</t>
+  </si>
+  <si>
+    <t>DP0BEE</t>
+  </si>
+  <si>
+    <t>ITU-pSat1</t>
+  </si>
+  <si>
+    <t>19k2 GFSK,CW</t>
+  </si>
+  <si>
+    <t>TIsat-1</t>
+  </si>
+  <si>
+    <t>FM,AFSK,PSK,CW</t>
+  </si>
+  <si>
+    <t>HB9DE</t>
+  </si>
+  <si>
+    <t>O/OREOS</t>
+  </si>
+  <si>
+    <t>KF6JBP</t>
+  </si>
+  <si>
+    <t>FO-69 (FASTRAC-1)</t>
+  </si>
+  <si>
+    <t>FAST1</t>
+  </si>
+  <si>
+    <t>FO-70 (FASTRAC-2)</t>
+  </si>
+  <si>
+    <t>FAST2</t>
+  </si>
+  <si>
+    <t>9k6 FSK</t>
+  </si>
+  <si>
+    <t>Jugnu</t>
+  </si>
+  <si>
+    <t>SRMSAT</t>
+  </si>
+  <si>
+    <t>RAX-2</t>
+  </si>
+  <si>
+    <t>9k6 GMSK</t>
+  </si>
+  <si>
+    <t>AO-71 (AubieSat-1)</t>
+  </si>
+  <si>
+    <t>E1P-U2</t>
+  </si>
+  <si>
+    <t>1k2 AFSK,LSB</t>
+  </si>
+  <si>
+    <t>M-Cubed</t>
+  </si>
+  <si>
+    <t>9k6 GMSK,KISS</t>
+  </si>
+  <si>
+    <t>MaSat-1 (MO-72)</t>
+  </si>
+  <si>
+    <t>0k625/1k25 GFSK,CW</t>
+  </si>
+  <si>
+    <t>HA5MASAT</t>
+  </si>
+  <si>
+    <t>Xatcobeo</t>
+  </si>
+  <si>
+    <t>CW (FM)</t>
+  </si>
+  <si>
+    <t>PW-Sat1</t>
+  </si>
+  <si>
+    <t>1k2 BPSK,FM,CW</t>
+  </si>
+  <si>
+    <t>VOID</t>
+  </si>
+  <si>
+    <t>HORYU-2</t>
+  </si>
+  <si>
+    <t>437.378/372</t>
+  </si>
+  <si>
+    <t>1k2 FSK/CW</t>
+  </si>
+  <si>
+    <t>JG6YBW</t>
+  </si>
+  <si>
+    <t>PROITERES</t>
+  </si>
+  <si>
+    <t>JL3YZL</t>
+  </si>
+  <si>
+    <t>AENEAS</t>
+  </si>
+  <si>
+    <t>KE6YFA-1</t>
+  </si>
+  <si>
+    <t>CSSWE</t>
+  </si>
+  <si>
+    <t>CP5</t>
+  </si>
+  <si>
+    <t>1k2 AFSK LSB</t>
+  </si>
+  <si>
+    <t>AAUSAT3</t>
+  </si>
+  <si>
+    <t>9k6 FSK, CW</t>
+  </si>
+  <si>
+    <t>OZ3CUB</t>
+  </si>
+  <si>
+    <t>STRaND-1</t>
+  </si>
+  <si>
+    <t>BeeSat-2</t>
+  </si>
+  <si>
+    <t>4k8 GMSK</t>
+  </si>
+  <si>
+    <t>DP0BEF</t>
+  </si>
+  <si>
+    <t>SOMP</t>
+  </si>
+  <si>
+    <t>CW, 1k2 FSK</t>
+  </si>
+  <si>
+    <t>DP0TUD</t>
+  </si>
+  <si>
+    <t>CubeBug-1</t>
+  </si>
+  <si>
+    <t>CUBEB1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,23 +438,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -174,15 +495,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,20 +813,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,139 +831,1664 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7530</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3">
+        <v>29.501999999999999</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>7530</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F3" s="3">
+        <v>145.97</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>14781</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3">
+        <v>145.82599999999999</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>27939</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3">
+        <v>435.35199999999998</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C6" s="3">
+        <v>22825</v>
+      </c>
+      <c r="D6" s="3">
+        <v>145.85</v>
+      </c>
+      <c r="E6" s="3">
+        <v>436.79500000000002</v>
+      </c>
+      <c r="F6" s="3">
+        <v>436.79500000000002</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>24278</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3">
+        <v>435.79640000000001</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>25544</v>
+      </c>
+      <c r="D8" s="3">
+        <v>437.55</v>
+      </c>
+      <c r="E8" s="3">
+        <v>437.55</v>
+      </c>
+      <c r="F8" s="3">
+        <v>437.55</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>25544</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>25544</v>
+      </c>
+      <c r="D10" s="3">
+        <v>145.82499999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>145.82499999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>145.82499999999999</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>26931</v>
+      </c>
+      <c r="D11" s="3">
+        <v>145.827</v>
+      </c>
+      <c r="E11" s="3">
+        <v>145.827</v>
+      </c>
+      <c r="F11" s="3">
+        <v>145.827</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>27607</v>
+      </c>
+      <c r="D12" s="3">
+        <v>145.85</v>
+      </c>
+      <c r="E12" s="3">
+        <v>436.79500000000002</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>28650</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="3">
+        <v>145.86000000000001</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>27844</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3">
+        <v>437.47</v>
+      </c>
+      <c r="F14" s="3">
+        <v>436.83749999999998</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>27848</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3">
+        <v>437.49</v>
+      </c>
+      <c r="F15" s="3">
+        <v>436.84750000000003</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3">
+        <v>28895</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3">
+        <v>437.34500000000003</v>
+      </c>
+      <c r="F16" s="3">
+        <v>437.46499999999997</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3">
+        <v>32785</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1267.5999999999999</v>
+      </c>
+      <c r="E17" s="3">
+        <v>437.47500000000002</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3">
+        <v>32785</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="3">
+        <v>437.47500000000002</v>
+      </c>
+      <c r="F18" s="3">
+        <v>437.27499999999998</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32788</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="3">
+        <v>437.43200000000002</v>
+      </c>
+      <c r="F19" s="3">
+        <v>437.43200000000002</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3">
+        <v>32789</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="3">
+        <v>145.87</v>
+      </c>
+      <c r="F20" s="3">
+        <v>145.86750000000001</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3">
+        <v>32791</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3">
+        <v>437.48500000000001</v>
+      </c>
+      <c r="F21" s="3">
+        <v>437.48500000000001</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <v>32953</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="3">
+        <v>435.315</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
+      <c r="H22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3">
+        <v>33493</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3">
+        <v>437.42500000000001</v>
+      </c>
+      <c r="F23" s="3">
+        <v>437.25</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3">
+        <v>35932</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3">
+        <v>437.505</v>
+      </c>
+      <c r="F24" s="3">
+        <v>437.505</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3">
+        <v>35933</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="3">
+        <v>436</v>
+      </c>
+      <c r="F25" s="3">
+        <v>436</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3">
+        <v>35935</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="3">
+        <v>437.32499999999999</v>
+      </c>
+      <c r="F26" s="3">
+        <v>437.32499999999999</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3">
+        <v>36799</v>
+      </c>
+      <c r="D27" s="3">
+        <v>145.97999999999999</v>
+      </c>
+      <c r="E27" s="3">
+        <v>437.30500000000001</v>
+      </c>
+      <c r="F27" s="3">
+        <v>145.97999999999999</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3">
+        <v>37224</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="3">
+        <v>437.30500000000001</v>
+      </c>
+      <c r="F28" s="3">
+        <v>437.30369999999999</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3">
+        <v>37227</v>
+      </c>
+      <c r="D29" s="3">
+        <v>145.97999999999999</v>
+      </c>
+      <c r="E29" s="3">
+        <v>437.34500000000003</v>
+      </c>
+      <c r="F29" s="3">
+        <v>437.34500000000003</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3">
+        <v>37380</v>
+      </c>
+      <c r="D30" s="3">
+        <v>435.02499999999998</v>
+      </c>
+      <c r="E30" s="3">
+        <v>145.82499999999999</v>
+      </c>
+      <c r="F30" s="3">
+        <v>145.82499999999999</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3">
+        <v>37380</v>
+      </c>
+      <c r="D31" s="3">
+        <v>437.34500000000003</v>
+      </c>
+      <c r="E31" s="3">
+        <v>145.82499999999999</v>
+      </c>
+      <c r="F31" s="3">
+        <v>145.82499999999999</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3">
+        <v>37839</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="3">
+        <v>437.505</v>
+      </c>
+      <c r="F32" s="3">
+        <v>437.27589999999998</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3">
+        <v>37841</v>
+      </c>
+      <c r="D33" s="3">
+        <v>145.9</v>
+      </c>
+      <c r="E33" s="3">
+        <v>437.5</v>
+      </c>
+      <c r="F33" s="3">
+        <v>437.42500000000001</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3">
+        <v>37853</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="3">
+        <v>437.34500000000003</v>
+      </c>
+      <c r="F34" s="3">
+        <v>437.34500000000003</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="3">
+        <v>37854</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="3">
+        <v>437.47500000000002</v>
+      </c>
+      <c r="F35" s="3">
+        <v>437.47300000000001</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3">
+        <v>37855</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="3">
+        <v>437.505</v>
+      </c>
+      <c r="F36" s="3">
+        <v>437.50200000000001</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3">
+        <v>37855</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="3">
+        <v>437.48500000000001</v>
+      </c>
+      <c r="F37" s="3">
+        <v>437.48500000000001</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="3">
+        <v>38081</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="3">
+        <v>437.34500000000003</v>
+      </c>
+      <c r="F38" s="3">
+        <v>437.34500000000003</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="3">
+        <v>38082</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="3">
+        <v>437.36500000000001</v>
+      </c>
+      <c r="F39" s="3">
+        <v>437.36500000000001</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="3">
+        <v>38083</v>
+      </c>
+      <c r="D40" s="3">
+        <v>435.02</v>
+      </c>
+      <c r="E40" s="3">
+        <v>145.9</v>
+      </c>
+      <c r="F40" s="3">
+        <v>145.90199999999999</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="3">
+        <v>38340</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="3">
+        <v>437.375</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="3">
+        <v>38756</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="3">
+        <v>437.48500000000001</v>
+      </c>
+      <c r="F42" s="3">
+        <v>437.48500000000001</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="3">
+        <v>38760</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="3">
+        <v>437.6</v>
+      </c>
+      <c r="F43" s="3">
+        <v>437.6</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="3">
+        <v>38761</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="3">
+        <v>437.34899999999999</v>
+      </c>
+      <c r="F44" s="3">
+        <v>437.34899999999999</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="3">
+        <v>38765</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="3">
+        <v>437.40499999999997</v>
+      </c>
+      <c r="F45" s="3">
+        <v>437.40499999999997</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="3">
+        <v>39087</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="3">
+        <v>437.42500000000001</v>
+      </c>
+      <c r="F46" s="3">
+        <v>437.42500000000001</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="3">
+        <v>39090</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="3">
+        <v>437.56799999999998</v>
+      </c>
+      <c r="F47" s="3">
+        <v>437.56799999999998</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="3">
+        <v>39136</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="3">
+        <v>435.95</v>
+      </c>
+      <c r="F48" s="3">
+        <v>435.95</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="3">
+        <v>39134</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="3">
+        <v>437.50400000000002</v>
+      </c>
+      <c r="F49" s="3">
+        <v>437.50400000000002</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="3">
+        <v>39153</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="3">
+        <v>437.43799999999999</v>
+      </c>
+      <c r="F50" s="3">
+        <v>437.43799999999999</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" display="http://www.dk3wn.info/p/?cat=21"/>
+    <hyperlink ref="J2" r:id="rId2" display="http://www.dk3wn.info/sat/afu/sat_ao7.shtml"/>
+    <hyperlink ref="I3" r:id="rId3" display="http://www.dk3wn.info/p/?cat=21"/>
+    <hyperlink ref="J3" r:id="rId4" display="http://www.dk3wn.info/sat/afu/sat_ao7.shtml"/>
+    <hyperlink ref="I4" r:id="rId5" display="http://www.dk3wn.info/p/?cat=47"/>
+    <hyperlink ref="J4" r:id="rId6" display="http://www.dk3wn.info/sat/afu/sat_uo11.shtml"/>
+    <hyperlink ref="I5" r:id="rId7" display="http://www.dk3wn.info/p/?cat=20"/>
+    <hyperlink ref="J5" r:id="rId8" display="http://www.dk3wn.info/sat/afu/sat_rs22.shtml"/>
+    <hyperlink ref="I6" r:id="rId9" display="http://www.dk3wn.info/p/?cat=22"/>
+    <hyperlink ref="J6" r:id="rId10" display="http://www.dk3wn.info/sat/afu/sat_ao27.shtml"/>
+    <hyperlink ref="I7" r:id="rId11" display="http://www.dk3wn.info/p/?cat=25"/>
+    <hyperlink ref="J7" r:id="rId12" display="http://www.dk3wn.info/sat/afu/sat_fo29.shtml"/>
+    <hyperlink ref="I8" r:id="rId13" display="http://www.dk3wn.info/p/?cat=26"/>
+    <hyperlink ref="J8" r:id="rId14" display="http://www.dk3wn.info/sat/afu/sat_iss.shtml"/>
+    <hyperlink ref="I9" r:id="rId15" display="http://www.dk3wn.info/p/?cat=26"/>
+    <hyperlink ref="J9" r:id="rId16" display="http://www.dk3wn.info/sat/afu/sat_iss.shtml"/>
+    <hyperlink ref="I10" r:id="rId17" display="http://www.dk3wn.info/p/?cat=26"/>
+    <hyperlink ref="J10" r:id="rId18" display="http://www.dk3wn.info/sat/afu/sat_iss.shtml"/>
+    <hyperlink ref="I11" r:id="rId19" display="http://www.dk3wn.info/p/?cat=27"/>
+    <hyperlink ref="J11" r:id="rId20" display="http://www.dk3wn.info/sat/afu/sat_no44.shtml"/>
+    <hyperlink ref="I12" r:id="rId21" display="http://www.dk3wn.info/p/?cat=21"/>
+    <hyperlink ref="J12" r:id="rId22" display="http://www.dk3wn.info/sat/afu/sat_so41.shtml"/>
+    <hyperlink ref="I13" r:id="rId23" display="http://www.dk3wn.info/p/?cat=91"/>
+    <hyperlink ref="J13" r:id="rId24" display="http://www.dk3wn.info/sat/afu/sat_hamsat.shtml"/>
+    <hyperlink ref="I14" r:id="rId25" display="http://www.dk3wn.info/p/?cat=14"/>
+    <hyperlink ref="J14" r:id="rId26" display="http://www.dk3wn.info/sat/afu/sat_cute.shtml"/>
+    <hyperlink ref="I15" r:id="rId27" display="http://www.dk3wn.info/p/?cat=13"/>
+    <hyperlink ref="J15" r:id="rId28" display="http://www.dk3wn.info/sat/afu/sat_xiiv.shtml"/>
+    <hyperlink ref="I16" r:id="rId29" display="http://www.dk3wn.info/p/?cat=9"/>
+    <hyperlink ref="J16" r:id="rId30" display="http://www.dk3wn.info/sat/afu/sat_xiv.shtml"/>
+    <hyperlink ref="I17" r:id="rId31" display="http://www.dk3wn.info/p/?cat=3"/>
+    <hyperlink ref="J17" r:id="rId32" display="http://www.dk3wn.info/sat/afu/sat_cute17apd2.shtml"/>
+    <hyperlink ref="I18" r:id="rId33" display="http://www.dk3wn.info/p/?cat=3"/>
+    <hyperlink ref="J18" r:id="rId34" display="http://www.dk3wn.info/sat/afu/sat_cute17apd2.shtml"/>
+    <hyperlink ref="I19" r:id="rId35" display="http://www.dk3wn.info/p/?cat=8"/>
+    <hyperlink ref="J19" r:id="rId36" display="http://www.dk3wn.info/sat/afu/sat_aausat.shtml"/>
+    <hyperlink ref="I20" r:id="rId37" display="http://www.dk3wn.info/p/?cat=6"/>
+    <hyperlink ref="J20" r:id="rId38" display="http://www.dk3wn.info/sat/afu/sat_delfi.shtml"/>
+    <hyperlink ref="I21" r:id="rId39" display="http://www.dk3wn.info/p/?cat=7"/>
+    <hyperlink ref="J21" r:id="rId40" display="http://www.dk3wn.info/sat/afu/sat_seeds.shtml"/>
+    <hyperlink ref="I22" r:id="rId41" display="http://www.dk3wn.info/p/?cat=17"/>
+    <hyperlink ref="J22" r:id="rId42" display="http://www.dk3wn.info/sat/afu/sat_rs30.shtml"/>
+    <hyperlink ref="I23" r:id="rId43" display="http://www.dk3wn.info/p/?cat=31"/>
+    <hyperlink ref="J23" r:id="rId44" display="http://www.dk3wn.info/sat/afu/sat_prism.shtml"/>
+    <hyperlink ref="I24" r:id="rId45" display="http://www.dk3wn.info/p/?cat=45"/>
+    <hyperlink ref="J24" r:id="rId46" display="http://www.dk3wn.info/sat/afu/sat_swisscube.shtml"/>
+    <hyperlink ref="I25" r:id="rId47" display="http://www.dk3wn.info/p/?cat=42"/>
+    <hyperlink ref="J25" r:id="rId48" display="http://www.dk3wn.info/sat/afu/sat_beesat.shtml"/>
+    <hyperlink ref="I26" r:id="rId49" display="http://www.dk3wn.info/p/?cat=44"/>
+    <hyperlink ref="J26" r:id="rId50" display="http://www.dk3wn.info/sat/afu/sat_itupsat.shtml"/>
+    <hyperlink ref="I27" r:id="rId51" display="http://www.dk3wn.info/p/?cat=59"/>
+    <hyperlink ref="J27" r:id="rId52" display="http://www.dk3wn.info/sat/afu/sat_tisat.shtml"/>
+    <hyperlink ref="I28" r:id="rId53" display="http://www.dk3wn.info/p/?cat=64"/>
+    <hyperlink ref="J28" r:id="rId54" display="http://www.dk3wn.info/sat/afu/sat_ooreos.shtml"/>
+    <hyperlink ref="I29" r:id="rId55" display="http://www.dk3wn.info/p/?cat=65"/>
+    <hyperlink ref="J29" r:id="rId56" display="http://www.dk3wn.info/sat/afu/sat_fast1.shtml"/>
+    <hyperlink ref="I30" r:id="rId57" display="http://www.dk3wn.info/p/?cat=65"/>
+    <hyperlink ref="J30" r:id="rId58" display="http://www.dk3wn.info/sat/afu/sat_fast2.shtml"/>
+    <hyperlink ref="I31" r:id="rId59" display="http://www.dk3wn.info/p/?cat=65"/>
+    <hyperlink ref="J31" r:id="rId60" display="http://www.dk3wn.info/sat/afu/sat_fast2.shtml"/>
+    <hyperlink ref="I32" r:id="rId61" display="http://www.dk3wn.info/p/?cat=73"/>
+    <hyperlink ref="J32" r:id="rId62" display="http://www.dk3wn.info/sat/afu/sat_jugnu.shtml"/>
+    <hyperlink ref="I33" r:id="rId63" display="http://www.dk3wn.info/p/?cat=72"/>
+    <hyperlink ref="J33" r:id="rId64" display="http://www.dk3wn.info/sat/afu/sat_srmsat.shtml"/>
+    <hyperlink ref="I34" r:id="rId65" display="http://www.dk3wn.info/p/?cat=63"/>
+    <hyperlink ref="J34" r:id="rId66" display="http://www.dk3wn.info/sat/afu/sat_rax.shtml"/>
+    <hyperlink ref="I35" r:id="rId67" display="http://www.dk3wn.info/p/?cat=76"/>
+    <hyperlink ref="J35" r:id="rId68" display="http://www.dk3wn.info/sat/afu/sat_aubiesat.shtml"/>
+    <hyperlink ref="I36" r:id="rId69" display="http://www.dk3wn.info/p/?cat=74"/>
+    <hyperlink ref="J36" r:id="rId70" display="http://www.dk3wn.info/sat/afu/sat_e1p.shtml"/>
+    <hyperlink ref="I37" r:id="rId71" display="http://www.dk3wn.info/p/?cat=77"/>
+    <hyperlink ref="J37" r:id="rId72" display="http://www.dk3wn.info/sat/afu/sat_mcubed.shtml"/>
+    <hyperlink ref="I38" r:id="rId73" display="http://www.dk3wn.info/p/?cat=86"/>
+    <hyperlink ref="J38" r:id="rId74" display="http://www.dk3wn.info/sat/afu/sat_masat.shtml"/>
+    <hyperlink ref="I39" r:id="rId75" display="http://www.dk3wn.info/p/?cat=90"/>
+    <hyperlink ref="J39" r:id="rId76" display="http://www.dk3wn.info/sat/afu/sat_xatcobeo.shtml"/>
+    <hyperlink ref="I40" r:id="rId77" display="http://www.dk3wn.info/p/?cat=87"/>
+    <hyperlink ref="J40" r:id="rId78" display="http://www.dk3wn.info/sat/afu/sat_pwsat.shtml"/>
+    <hyperlink ref="I41" r:id="rId79" display="http://www.dk3wn.info/p/?cat=92"/>
+    <hyperlink ref="J41" r:id="rId80" display="http://www.dk3wn.info/sat/afu/sat_horyu2.shtml"/>
+    <hyperlink ref="I42" r:id="rId81" display="http://www.dk3wn.info/p/?cat=97"/>
+    <hyperlink ref="J42" r:id="rId82" display="http://www.dk3wn.info/sat/afu/sat_proiteres.shtml"/>
+    <hyperlink ref="I43" r:id="rId83" display="http://www.dk3wn.info/p/?cat=96"/>
+    <hyperlink ref="J43" r:id="rId84" display="http://www.dk3wn.info/sat/afu/sat_aeneas.shtml"/>
+    <hyperlink ref="I44" r:id="rId85" display="http://www.dk3wn.info/p/?cat=102"/>
+    <hyperlink ref="J44" r:id="rId86" display="http://www.dk3wn.info/sat/afu/sat_csswe.shtml"/>
+    <hyperlink ref="I45" r:id="rId87" display="http://www.dk3wn.info/p/?cat=103"/>
+    <hyperlink ref="J45" r:id="rId88" display="http://www.dk3wn.info/sat/afu/sat_cp5.shtml"/>
+    <hyperlink ref="I46" r:id="rId89" display="http://www.dk3wn.info/p/?cat=8"/>
+    <hyperlink ref="J46" r:id="rId90" display="http://www.dk3wn.info/sat/afu/sat_aausat3.shtml"/>
+    <hyperlink ref="I47" r:id="rId91" display="http://www.dk3wn.info/p/?cat=106"/>
+    <hyperlink ref="J47" r:id="rId92" display="http://www.dk3wn.info/sat/afu/sat_strand.shtml"/>
+    <hyperlink ref="I48" r:id="rId93" display="http://www.dk3wn.info/p/?cat=42"/>
+    <hyperlink ref="J48" r:id="rId94" display="http://www.dk3wn.info/sat/afu/sat_beesat2.shtml"/>
+    <hyperlink ref="I49" r:id="rId95" display="http://www.dk3wn.info/p/?cat=117"/>
+    <hyperlink ref="J49" r:id="rId96" display="http://www.dk3wn.info/sat/afu/sat_somp.shtml"/>
+    <hyperlink ref="I50" r:id="rId97" display="http://www.dk3wn.info/p/?cat=122"/>
+    <hyperlink ref="J50" r:id="rId98" display="http://www.dk3wn.info/sat/afu/sat_cubebug1.shtml"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId99"/>
 </worksheet>
 </file>
--- a/Documents/LEOAMSAT_list.xlsx
+++ b/Documents/LEOAMSAT_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tibbs2010\Desktop\SD\trunk\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cedric\Documents\SD\trunk\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="139">
   <si>
     <t>Satellite</t>
   </si>
@@ -423,6 +423,24 @@
   </si>
   <si>
     <t>CUBEB1</t>
+  </si>
+  <si>
+    <t>FUNcube</t>
+  </si>
+  <si>
+    <t>Launch- Nov</t>
+  </si>
+  <si>
+    <t>145.950 – 145.970</t>
+  </si>
+  <si>
+    <t>435.150 – 435.130</t>
+  </si>
+  <si>
+    <t>SSB and CW</t>
+  </si>
+  <si>
+    <t>1k2 BPSK Telemetry</t>
   </si>
 </sst>
 </file>
@@ -487,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -510,12 +528,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -532,6 +578,26 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -813,13 +879,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -2356,34 +2428,80 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="8">
         <v>39153</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="D50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="8">
         <v>437.43799999999999</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="8">
         <v>437.43799999999999</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J50" s="4" t="s">
+      <c r="I50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12">
+        <v>145.935</v>
+      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2487,8 +2605,10 @@
     <hyperlink ref="J49" r:id="rId96" display="http://www.dk3wn.info/sat/afu/sat_somp.shtml"/>
     <hyperlink ref="I50" r:id="rId97" display="http://www.dk3wn.info/p/?cat=122"/>
     <hyperlink ref="J50" r:id="rId98" display="http://www.dk3wn.info/sat/afu/sat_cubebug1.shtml"/>
+    <hyperlink ref="J51" r:id="rId99"/>
+    <hyperlink ref="J52" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId99"/>
+  <pageSetup orientation="portrait" r:id="rId101"/>
 </worksheet>
 </file>